--- a/resources/asaf.xlsx
+++ b/resources/asaf.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotemwald/PycharmProjects/FinalProject/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6E81CA-82F7-F042-8B37-F043D10D2B59}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Room_270" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="776">
   <si>
     <t xml:space="preserve">TimeStamp </t>
   </si>
@@ -2323,9 +2329,6 @@
     <t xml:space="preserve">NMD </t>
   </si>
   <si>
-    <t xml:space="preserve">DS </t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -2342,13 +2345,19 @@
   </si>
   <si>
     <t>אלכסונים מאונכים</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2905,7 +2914,6 @@
     <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2929,6 +2937,7 @@
     <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3232,35 +3241,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AI555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:AI555"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="4.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="35" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="18.875" style="3"/>
+    <col min="1" max="1" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="35" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="18.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3268,10 +3277,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>760</v>
@@ -3283,13 +3292,13 @@
         <v>762</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" customFormat="1" hidden="1">
+    </row>
+    <row r="2" spans="1:19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="3" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3311,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3343,7 +3352,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" customFormat="1">
+    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="6" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" customFormat="1" hidden="1">
+    <row r="8" spans="1:19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" customFormat="1" hidden="1">
+    <row r="9" spans="1:19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3404,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3415,7 +3424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3481,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" hidden="1">
+    <row r="17" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -3492,7 +3501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1">
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customFormat="1" hidden="1">
+    <row r="19" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3520,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customFormat="1">
+    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" customFormat="1" hidden="1">
+    <row r="21" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1">
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E22" s="2">
         <v>11</v>
@@ -3562,7 +3571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" customFormat="1">
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -3573,7 +3582,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E23" s="1">
         <v>11</v>
@@ -3583,7 +3592,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:9" customFormat="1" hidden="1">
+    <row r="24" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -3598,7 +3607,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:9" customFormat="1">
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E25" s="1">
         <v>11</v>
@@ -3619,7 +3628,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="26" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -3630,7 +3639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1">
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -3641,7 +3650,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
@@ -3650,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customFormat="1" hidden="1">
+    <row r="28" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" customFormat="1">
+    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E29" s="1">
         <v>11</v>
@@ -3684,7 +3693,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="30" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1">
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -3706,7 +3715,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E31" s="2">
         <v>11</v>
@@ -3715,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" customFormat="1" hidden="1">
+    <row r="32" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" customFormat="1">
+    <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E33" s="1">
         <v>11</v>
@@ -3748,7 +3757,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:9" customFormat="1">
+    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3759,7 +3768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="35" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" customFormat="1" hidden="1">
+    <row r="36" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
@@ -3790,7 +3799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" customFormat="1">
+    <row r="37" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -3801,7 +3810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:9" customFormat="1" hidden="1">
+    <row r="38" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="39" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" customFormat="1">
+    <row r="40" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E40" s="1">
         <v>11</v>
@@ -3844,7 +3853,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1">
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
@@ -3864,7 +3873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="42" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customFormat="1" hidden="1">
+    <row r="43" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" customFormat="1">
+    <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E44" s="1">
         <v>11</v>
@@ -3907,7 +3916,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:9" customFormat="1" hidden="1">
+    <row r="45" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customFormat="1" hidden="1">
+    <row r="46" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -3941,7 +3950,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" hidden="1">
+    <row r="47" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
@@ -3952,7 +3961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="2" customFormat="1">
+    <row r="48" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -3963,7 +3972,7 @@
         <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E48" s="2">
         <v>11</v>
@@ -3972,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="49" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>75</v>
       </c>
@@ -3983,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1">
+    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>76</v>
       </c>
@@ -4000,7 +4009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="51" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -4011,7 +4020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="52" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" customFormat="1" hidden="1">
+    <row r="53" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -4052,7 +4061,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" customFormat="1">
+    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>83</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" customFormat="1" hidden="1">
+    <row r="55" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>85</v>
       </c>
@@ -4080,7 +4089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" customFormat="1">
+    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="57" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -4117,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="58" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>90</v>
       </c>
@@ -4137,7 +4146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="59" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -4157,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="60" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="61" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -4197,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="62" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>98</v>
       </c>
@@ -4217,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="63" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>100</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="64" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>102</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="2" customFormat="1" hidden="1">
+    <row r="65" spans="1:35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>104</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="2" customFormat="1" hidden="1">
+    <row r="66" spans="1:35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>105</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="2" customFormat="1" hidden="1">
+    <row r="67" spans="1:35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="2" customFormat="1">
+    <row r="68" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>107</v>
       </c>
@@ -4319,7 +4328,7 @@
         <v>108</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
@@ -4328,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:35" customFormat="1" hidden="1">
+    <row r="69" spans="1:35" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:35" customFormat="1">
+    <row r="70" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>110</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>111</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E70" s="2">
         <v>11</v>
@@ -4359,7 +4368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" s="2" customFormat="1" hidden="1">
+    <row r="71" spans="1:35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>112</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" customFormat="1" hidden="1">
+    <row r="72" spans="1:35" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="2" customFormat="1">
+    <row r="73" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>114</v>
       </c>
@@ -4392,7 +4401,7 @@
         <v>115</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E73" s="2">
         <v>11</v>
@@ -4485,7 +4494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:35" customFormat="1">
+    <row r="74" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
@@ -4496,7 +4505,7 @@
         <v>117</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E74" s="1">
         <v>11</v>
@@ -4521,7 +4530,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:35" customFormat="1" hidden="1">
+    <row r="75" spans="1:35" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>118</v>
       </c>
@@ -4550,7 +4559,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:35" customFormat="1">
+    <row r="76" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -4561,7 +4570,7 @@
         <v>120</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E76" s="1">
         <v>11</v>
@@ -4586,7 +4595,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="1:35" s="2" customFormat="1" hidden="1">
+    <row r="77" spans="1:35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>121</v>
       </c>
@@ -4597,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="2" customFormat="1">
+    <row r="78" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>122</v>
       </c>
@@ -4608,7 +4617,7 @@
         <v>123</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E78" s="2">
         <v>11</v>
@@ -4617,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" customFormat="1" hidden="1">
+    <row r="79" spans="1:35" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>124</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" customFormat="1">
+    <row r="80" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>125</v>
       </c>
@@ -4639,7 +4648,7 @@
         <v>126</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E80" s="1">
         <v>11</v>
@@ -4649,7 +4658,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:23" customFormat="1" hidden="1">
+    <row r="81" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>127</v>
       </c>
@@ -4664,7 +4673,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:23" customFormat="1" hidden="1">
+    <row r="82" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
@@ -4675,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:23" customFormat="1">
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>129</v>
       </c>
@@ -4686,7 +4695,7 @@
         <v>130</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E83" s="1">
         <v>11</v>
@@ -4697,7 +4706,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:23" s="2" customFormat="1" hidden="1">
+    <row r="84" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>131</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" hidden="1">
+    <row r="85" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>132</v>
       </c>
@@ -4719,7 +4728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="2" customFormat="1">
+    <row r="86" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>133</v>
       </c>
@@ -4730,7 +4739,7 @@
         <v>134</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E86" s="2">
         <v>11</v>
@@ -4739,7 +4748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>135</v>
       </c>
@@ -4750,7 +4759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:23" customFormat="1" hidden="1">
+    <row r="88" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>137</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:23" customFormat="1">
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>138</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>139</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E89" s="1">
         <v>11</v>
@@ -4798,7 +4807,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" customFormat="1" hidden="1">
+    <row r="90" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>140</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>141</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:23" customFormat="1" hidden="1">
+    <row r="92" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
@@ -4831,7 +4840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:23" customFormat="1" hidden="1">
+    <row r="93" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>144</v>
       </c>
@@ -4842,7 +4851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="2" customFormat="1" hidden="1">
+    <row r="94" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>145</v>
       </c>
@@ -4853,7 +4862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:23" customFormat="1">
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
@@ -4864,7 +4873,7 @@
         <v>147</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E95" s="1">
         <v>11</v>
@@ -4873,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="2" customFormat="1">
+    <row r="96" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>149</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E96" s="2">
         <v>11</v>
@@ -4893,7 +4902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" customFormat="1" hidden="1">
+    <row r="97" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>150</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" customFormat="1">
+    <row r="98" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>151</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>152</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E98" s="1">
         <v>11</v>
@@ -4924,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" customFormat="1" hidden="1">
+    <row r="99" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>153</v>
       </c>
@@ -4938,7 +4947,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:8" customFormat="1">
+    <row r="100" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>154</v>
       </c>
@@ -4949,7 +4958,7 @@
         <v>155</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E100" s="1">
         <v>11</v>
@@ -4958,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" customFormat="1" hidden="1">
+    <row r="101" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>156</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" customFormat="1" hidden="1">
+    <row r="102" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>157</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" customFormat="1" hidden="1">
+    <row r="103" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>158</v>
       </c>
@@ -4991,7 +5000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" customFormat="1" hidden="1">
+    <row r="104" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>159</v>
       </c>
@@ -5002,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" customFormat="1" hidden="1">
+    <row r="105" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>160</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" customFormat="1">
+    <row r="106" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>161</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>162</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E106" s="1">
         <v>11</v>
@@ -5035,7 +5044,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" customFormat="1" hidden="1">
+    <row r="107" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>163</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" customFormat="1">
+    <row r="108" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>164</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>165</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E108" s="1">
         <v>11</v>
@@ -5066,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="109" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>166</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="110" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>168</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="2" customFormat="1">
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>169</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>170</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E111" s="2">
         <v>11</v>
@@ -5117,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" customFormat="1" hidden="1">
+    <row r="112" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>171</v>
       </c>
@@ -5128,7 +5137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:24" customFormat="1">
+    <row r="113" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>172</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>173</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E113" s="1">
         <v>11</v>
@@ -5194,7 +5203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:24" customFormat="1" hidden="1">
+    <row r="114" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>174</v>
       </c>
@@ -5205,7 +5214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:24" customFormat="1" hidden="1">
+    <row r="115" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>175</v>
       </c>
@@ -5216,7 +5225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" s="2" customFormat="1" hidden="1">
+    <row r="116" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>176</v>
       </c>
@@ -5227,7 +5236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:24" s="2" customFormat="1">
+    <row r="117" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>177</v>
       </c>
@@ -5238,7 +5247,7 @@
         <v>178</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E117" s="2">
         <v>11</v>
@@ -5247,7 +5256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:24" s="2" customFormat="1" hidden="1">
+    <row r="118" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>179</v>
       </c>
@@ -5258,7 +5267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:24" customFormat="1" hidden="1">
+    <row r="119" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>180</v>
       </c>
@@ -5269,7 +5278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:24" s="2" customFormat="1">
+    <row r="120" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>181</v>
       </c>
@@ -5280,7 +5289,7 @@
         <v>182</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E120" s="2">
         <v>11</v>
@@ -5289,7 +5298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:24" customFormat="1" hidden="1">
+    <row r="121" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>183</v>
       </c>
@@ -5300,7 +5309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:24" customFormat="1" hidden="1">
+    <row r="122" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>184</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:24" customFormat="1">
+    <row r="123" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>185</v>
       </c>
@@ -5322,7 +5331,7 @@
         <v>186</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E123" s="1">
         <v>11</v>
@@ -5349,7 +5358,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="1:24" s="2" customFormat="1" hidden="1">
+    <row r="124" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>187</v>
       </c>
@@ -5360,7 +5369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="2" customFormat="1">
+    <row r="125" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>188</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>189</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E125" s="2">
         <v>11</v>
@@ -5380,7 +5389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:24" s="2" customFormat="1" hidden="1">
+    <row r="126" spans="1:24" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>190</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:24" s="2" customFormat="1">
+    <row r="127" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>191</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:24" customFormat="1" hidden="1">
+    <row r="128" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>193</v>
       </c>
@@ -5436,7 +5445,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" customFormat="1">
+    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>194</v>
       </c>
@@ -5468,7 +5477,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" customFormat="1" hidden="1">
+    <row r="130" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>196</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:20" customFormat="1" hidden="1">
+    <row r="131" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>197</v>
       </c>
@@ -5499,7 +5508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:20" customFormat="1" hidden="1">
+    <row r="132" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>198</v>
       </c>
@@ -5511,7 +5520,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="133" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>199</v>
       </c>
@@ -5522,7 +5531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:20" customFormat="1" hidden="1">
+    <row r="134" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>200</v>
       </c>
@@ -5533,7 +5542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>201</v>
       </c>
@@ -5544,7 +5553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:20" customFormat="1">
+    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>202</v>
       </c>
@@ -5555,7 +5564,7 @@
         <v>203</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E136" s="1">
         <v>11</v>
@@ -5570,7 +5579,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="137" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>204</v>
       </c>
@@ -5581,7 +5590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>205</v>
       </c>
@@ -5592,7 +5601,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="2" customFormat="1">
+    <row r="139" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>207</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>208</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E139" s="2">
         <v>11</v>
@@ -5612,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="140" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>209</v>
       </c>
@@ -5623,7 +5632,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="141" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>211</v>
       </c>
@@ -5634,7 +5643,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="142" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>213</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="2" customFormat="1">
+    <row r="143" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>214</v>
       </c>
@@ -5656,7 +5665,7 @@
         <v>215</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E143" s="2">
         <v>11</v>
@@ -5665,7 +5674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="144" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>216</v>
       </c>
@@ -5676,7 +5685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="2" customFormat="1">
+    <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>217</v>
       </c>
@@ -5687,7 +5696,7 @@
         <v>218</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E145" s="2">
         <v>11</v>
@@ -5696,7 +5705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="146" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>219</v>
       </c>
@@ -5716,7 +5725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="147" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>220</v>
       </c>
@@ -5727,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="2" customFormat="1">
+    <row r="148" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>221</v>
       </c>
@@ -5738,7 +5747,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="149" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>223</v>
       </c>
@@ -5749,7 +5758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="2" customFormat="1">
+    <row r="150" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>224</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="151" spans="1:7" customFormat="1" hidden="1">
+    <row r="151" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>226</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" customFormat="1">
+    <row r="152" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>227</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:7" customFormat="1" hidden="1">
+    <row r="153" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>229</v>
       </c>
@@ -5793,7 +5802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" customFormat="1">
+    <row r="154" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>230</v>
       </c>
@@ -5804,7 +5813,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="155" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>232</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" customFormat="1" hidden="1">
+    <row r="156" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>233</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="157" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>234</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" customFormat="1">
+    <row r="158" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>235</v>
       </c>
@@ -5848,7 +5857,7 @@
         <v>236</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E158" s="1">
         <v>11</v>
@@ -5858,7 +5867,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" s="2" customFormat="1">
+    <row r="159" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>237</v>
       </c>
@@ -5869,7 +5878,7 @@
         <v>238</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E159" s="2">
         <v>11</v>
@@ -5878,7 +5887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" customFormat="1" hidden="1">
+    <row r="160" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>239</v>
       </c>
@@ -5889,7 +5898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:22" customFormat="1">
+    <row r="161" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>240</v>
       </c>
@@ -5900,7 +5909,7 @@
         <v>241</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E161" s="1">
         <v>11</v>
@@ -5912,7 +5921,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:22" s="2" customFormat="1" hidden="1">
+    <row r="162" spans="1:22" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>242</v>
       </c>
@@ -5923,7 +5932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:22" hidden="1">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>243</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:22" s="2" customFormat="1">
+    <row r="164" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>244</v>
       </c>
@@ -5945,7 +5954,7 @@
         <v>245</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E164" s="2">
         <v>11</v>
@@ -5999,7 +6008,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>246</v>
       </c>
@@ -6010,7 +6019,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="166" spans="1:22" customFormat="1" hidden="1">
+    <row r="166" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>248</v>
       </c>
@@ -6021,7 +6030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:22" hidden="1">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>249</v>
       </c>
@@ -6032,7 +6041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:22" customFormat="1">
+    <row r="168" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>250</v>
       </c>
@@ -6043,7 +6052,7 @@
         <v>251</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E168" s="1">
         <v>11</v>
@@ -6052,7 +6061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>252</v>
       </c>
@@ -6063,7 +6072,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="170" spans="1:22" hidden="1">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>254</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="1:22" customFormat="1" hidden="1">
+    <row r="171" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>256</v>
       </c>
@@ -6085,7 +6094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:22" customFormat="1">
+    <row r="172" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>257</v>
       </c>
@@ -6096,7 +6105,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:22" customFormat="1" hidden="1">
+    <row r="173" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>259</v>
       </c>
@@ -6107,7 +6116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:22" customFormat="1">
+    <row r="174" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>260</v>
       </c>
@@ -6118,7 +6127,7 @@
         <v>261</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E174" s="1">
         <v>11</v>
@@ -6127,7 +6136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:22" hidden="1">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>262</v>
       </c>
@@ -6140,7 +6149,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:22" customFormat="1" hidden="1">
+    <row r="176" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>263</v>
       </c>
@@ -6153,7 +6162,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>264</v>
       </c>
@@ -6166,7 +6175,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:14" customFormat="1" hidden="1">
+    <row r="178" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>266</v>
       </c>
@@ -6179,7 +6188,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:14" customFormat="1">
+    <row r="179" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>267</v>
       </c>
@@ -6190,7 +6199,7 @@
         <v>268</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E179" s="1">
         <v>11</v>
@@ -6199,7 +6208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:14" customFormat="1" hidden="1">
+    <row r="180" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>269</v>
       </c>
@@ -6212,7 +6221,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:14" hidden="1">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>270</v>
       </c>
@@ -6225,7 +6234,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:14" customFormat="1">
+    <row r="182" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>271</v>
       </c>
@@ -6236,7 +6245,7 @@
         <v>272</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E182" s="1">
         <v>11</v>
@@ -6245,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>273</v>
       </c>
@@ -6256,7 +6265,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="2" customFormat="1" hidden="1">
+    <row r="184" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>275</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="2" customFormat="1">
+    <row r="185" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>276</v>
       </c>
@@ -6278,7 +6287,7 @@
         <v>277</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E185" s="2">
         <v>11</v>
@@ -6287,7 +6296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:14" customFormat="1" hidden="1">
+    <row r="186" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>278</v>
       </c>
@@ -6298,7 +6307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:14" customFormat="1" hidden="1">
+    <row r="187" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>279</v>
       </c>
@@ -6311,7 +6320,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:14" customFormat="1" hidden="1">
+    <row r="188" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>280</v>
       </c>
@@ -6324,7 +6333,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:14" customFormat="1">
+    <row r="189" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>281</v>
       </c>
@@ -6335,7 +6344,7 @@
         <v>282</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E189" s="1">
         <v>11</v>
@@ -6346,7 +6355,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="1:14" hidden="1">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>283</v>
       </c>
@@ -6361,7 +6370,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" customFormat="1" hidden="1">
+    <row r="191" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>284</v>
       </c>
@@ -6376,7 +6385,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" hidden="1">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>285</v>
       </c>
@@ -6391,7 +6400,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:20" customFormat="1">
+    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>286</v>
       </c>
@@ -6402,7 +6411,7 @@
         <v>287</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E193" s="1">
         <v>11</v>
@@ -6413,7 +6422,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>288</v>
       </c>
@@ -6426,7 +6435,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="1:20" hidden="1">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>290</v>
       </c>
@@ -6441,7 +6450,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>291</v>
       </c>
@@ -6454,7 +6463,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" customFormat="1" hidden="1">
+    <row r="197" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>293</v>
       </c>
@@ -6467,7 +6476,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="198" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>294</v>
       </c>
@@ -6482,7 +6491,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="199" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>295</v>
       </c>
@@ -6497,7 +6506,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" customFormat="1" hidden="1">
+    <row r="200" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>296</v>
       </c>
@@ -6512,7 +6521,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row r="201" spans="1:20" customFormat="1" hidden="1">
+    <row r="201" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>297</v>
       </c>
@@ -6527,7 +6536,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row r="202" spans="1:20" customFormat="1" hidden="1">
+    <row r="202" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>298</v>
       </c>
@@ -6540,7 +6549,7 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="203" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>299</v>
       </c>
@@ -6554,7 +6563,7 @@
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="1:20" s="2" customFormat="1">
+    <row r="204" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>300</v>
       </c>
@@ -6565,7 +6574,7 @@
         <v>301</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E204" s="1">
         <v>11</v>
@@ -6577,7 +6586,7 @@
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
     </row>
-    <row r="205" spans="1:20" customFormat="1" hidden="1">
+    <row r="205" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>302</v>
       </c>
@@ -6593,7 +6602,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" spans="1:20" customFormat="1">
+    <row r="206" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>303</v>
       </c>
@@ -6604,7 +6613,7 @@
         <v>304</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E206" s="1">
         <v>11</v>
@@ -6615,7 +6624,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="207" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>305</v>
       </c>
@@ -6630,7 +6639,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="1:20" customFormat="1" hidden="1">
+    <row r="208" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>306</v>
       </c>
@@ -6645,7 +6654,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="1:18" s="2" customFormat="1">
+    <row r="209" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>307</v>
       </c>
@@ -6660,7 +6669,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:18" customFormat="1">
+    <row r="210" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>309</v>
       </c>
@@ -6671,7 +6680,7 @@
         <v>310</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E210" s="1">
         <v>11</v>
@@ -6680,7 +6689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:18" customFormat="1" hidden="1">
+    <row r="211" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>311</v>
       </c>
@@ -6691,7 +6700,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="212" spans="1:18" s="2" customFormat="1" hidden="1">
+    <row r="212" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>313</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:18" customFormat="1" hidden="1">
+    <row r="213" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>314</v>
       </c>
@@ -6713,7 +6722,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="214" spans="1:18" customFormat="1" hidden="1">
+    <row r="214" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>316</v>
       </c>
@@ -6724,7 +6733,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="215" spans="1:18" customFormat="1" hidden="1">
+    <row r="215" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>318</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:18" s="2" customFormat="1" hidden="1">
+    <row r="216" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>319</v>
       </c>
@@ -6746,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:18" customFormat="1" hidden="1">
+    <row r="217" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>320</v>
       </c>
@@ -6757,7 +6766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:18" customFormat="1" hidden="1">
+    <row r="218" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>321</v>
       </c>
@@ -6768,7 +6777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:18" customFormat="1">
+    <row r="219" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>322</v>
       </c>
@@ -6779,7 +6788,7 @@
         <v>323</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E219" s="1">
         <v>11</v>
@@ -6789,7 +6798,7 @@
       </c>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:18" customFormat="1" hidden="1">
+    <row r="220" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>324</v>
       </c>
@@ -6800,7 +6809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:18" customFormat="1" hidden="1">
+    <row r="221" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>325</v>
       </c>
@@ -6811,7 +6820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:18" customFormat="1" hidden="1">
+    <row r="222" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>326</v>
       </c>
@@ -6822,7 +6831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:18" customFormat="1" hidden="1">
+    <row r="223" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>327</v>
       </c>
@@ -6833,7 +6842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:18" customFormat="1">
+    <row r="224" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>328</v>
       </c>
@@ -6844,7 +6853,7 @@
         <v>329</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E224" s="1">
         <v>11</v>
@@ -6887,7 +6896,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="225" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>330</v>
       </c>
@@ -6898,7 +6907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:11" customFormat="1" hidden="1">
+    <row r="226" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>331</v>
       </c>
@@ -6909,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:11" customFormat="1">
+    <row r="227" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>332</v>
       </c>
@@ -6932,7 +6941,7 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="228" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>334</v>
       </c>
@@ -6951,7 +6960,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="229" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>335</v>
       </c>
@@ -6962,7 +6971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:11" s="2" customFormat="1">
+    <row r="230" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>336</v>
       </c>
@@ -6979,7 +6988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="231" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>338</v>
       </c>
@@ -6990,7 +6999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:11" s="2" customFormat="1">
+    <row r="232" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>339</v>
       </c>
@@ -7001,7 +7010,7 @@
         <v>340</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E232" s="2">
         <v>11</v>
@@ -7010,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="233" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>341</v>
       </c>
@@ -7021,7 +7030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:11" s="2" customFormat="1">
+    <row r="234" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>342</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>343</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E234" s="2">
         <v>11</v>
@@ -7041,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="235" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>344</v>
       </c>
@@ -7052,7 +7061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:11" s="2" customFormat="1">
+    <row r="236" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>345</v>
       </c>
@@ -7063,7 +7072,7 @@
         <v>346</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E236" s="2">
         <v>11</v>
@@ -7072,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="237" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>347</v>
       </c>
@@ -7083,7 +7092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:11" customFormat="1" hidden="1">
+    <row r="238" spans="1:11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>348</v>
       </c>
@@ -7094,7 +7103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="239" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>349</v>
       </c>
@@ -7105,7 +7114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:11" s="2" customFormat="1" hidden="1">
+    <row r="240" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>350</v>
       </c>
@@ -7116,7 +7125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:14" s="2" customFormat="1">
+    <row r="241" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>351</v>
       </c>
@@ -7127,7 +7136,7 @@
         <v>352</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E241" s="2">
         <v>11</v>
@@ -7136,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14" s="2" customFormat="1" hidden="1">
+    <row r="242" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>353</v>
       </c>
@@ -7147,7 +7156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:14" customFormat="1" hidden="1">
+    <row r="243" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>354</v>
       </c>
@@ -7158,7 +7167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:14" customFormat="1">
+    <row r="244" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>355</v>
       </c>
@@ -7169,7 +7178,7 @@
         <v>356</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E244" s="1">
         <v>11</v>
@@ -7181,7 +7190,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:14" s="2" customFormat="1" hidden="1">
+    <row r="245" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>357</v>
       </c>
@@ -7192,7 +7201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:14" customFormat="1" hidden="1">
+    <row r="246" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>358</v>
       </c>
@@ -7203,7 +7212,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="247" spans="1:14" customFormat="1" hidden="1">
+    <row r="247" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>360</v>
       </c>
@@ -7214,7 +7223,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="1:14" customFormat="1" hidden="1">
+    <row r="248" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>362</v>
       </c>
@@ -7225,7 +7234,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="249" spans="1:14" customFormat="1" hidden="1">
+    <row r="249" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>364</v>
       </c>
@@ -7236,7 +7245,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="250" spans="1:14" s="2" customFormat="1">
+    <row r="250" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>366</v>
       </c>
@@ -7247,7 +7256,7 @@
         <v>367</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E250" s="2">
         <v>11</v>
@@ -7256,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="2" customFormat="1" hidden="1">
+    <row r="251" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>368</v>
       </c>
@@ -7267,7 +7276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:14" customFormat="1" hidden="1">
+    <row r="252" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>371</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="253" spans="1:14" s="5" customFormat="1">
+    <row r="253" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>372</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>373</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E253" s="5">
         <v>11</v>
@@ -7319,7 +7328,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:14" s="2" customFormat="1" hidden="1">
+    <row r="254" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>374</v>
       </c>
@@ -7330,7 +7339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:14" s="2" customFormat="1">
+    <row r="255" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>375</v>
       </c>
@@ -7341,7 +7350,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="256" spans="1:14" customFormat="1" hidden="1">
+    <row r="256" spans="1:14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>377</v>
       </c>
@@ -7352,7 +7361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:3" customFormat="1">
+    <row r="257" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>378</v>
       </c>
@@ -7363,7 +7372,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="258" spans="1:3" customFormat="1" hidden="1">
+    <row r="258" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>380</v>
       </c>
@@ -7374,7 +7383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" customFormat="1">
+    <row r="259" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>381</v>
       </c>
@@ -7385,7 +7394,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="2" customFormat="1" hidden="1">
+    <row r="260" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>383</v>
       </c>
@@ -7396,7 +7405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="2" customFormat="1" hidden="1">
+    <row r="261" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>384</v>
       </c>
@@ -7407,7 +7416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" customFormat="1" hidden="1">
+    <row r="262" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>385</v>
       </c>
@@ -7418,7 +7427,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="263" spans="1:3" customFormat="1" hidden="1">
+    <row r="263" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>386</v>
       </c>
@@ -7429,7 +7438,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="264" spans="1:3" customFormat="1" hidden="1">
+    <row r="264" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>387</v>
       </c>
@@ -7440,7 +7449,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="265" spans="1:3" customFormat="1" hidden="1">
+    <row r="265" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>387</v>
       </c>
@@ -7451,7 +7460,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="266" spans="1:3" customFormat="1" hidden="1">
+    <row r="266" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>387</v>
       </c>
@@ -7462,7 +7471,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="267" spans="1:3" customFormat="1" hidden="1">
+    <row r="267" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>387</v>
       </c>
@@ -7473,7 +7482,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="268" spans="1:3" customFormat="1" hidden="1">
+    <row r="268" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>388</v>
       </c>
@@ -7484,7 +7493,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="269" spans="1:3" customFormat="1" hidden="1">
+    <row r="269" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>389</v>
       </c>
@@ -7495,7 +7504,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="270" spans="1:3" customFormat="1" hidden="1">
+    <row r="270" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>389</v>
       </c>
@@ -7506,7 +7515,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="271" spans="1:3" customFormat="1" hidden="1">
+    <row r="271" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>390</v>
       </c>
@@ -7517,7 +7526,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="272" spans="1:3" customFormat="1" hidden="1">
+    <row r="272" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>392</v>
       </c>
@@ -7528,7 +7537,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="273" spans="1:6" customFormat="1" hidden="1">
+    <row r="273" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>392</v>
       </c>
@@ -7539,7 +7548,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="274" spans="1:6" customFormat="1" hidden="1">
+    <row r="274" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>393</v>
       </c>
@@ -7550,7 +7559,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="275" spans="1:6" customFormat="1" hidden="1">
+    <row r="275" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>393</v>
       </c>
@@ -7561,7 +7570,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="276" spans="1:6" customFormat="1" hidden="1">
+    <row r="276" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>394</v>
       </c>
@@ -7572,7 +7581,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="277" spans="1:6" customFormat="1" hidden="1">
+    <row r="277" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>395</v>
       </c>
@@ -7583,7 +7592,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="278" spans="1:6" customFormat="1" hidden="1">
+    <row r="278" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>395</v>
       </c>
@@ -7594,7 +7603,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="279" spans="1:6" customFormat="1" hidden="1">
+    <row r="279" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>396</v>
       </c>
@@ -7605,7 +7614,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="2" customFormat="1">
+    <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>397</v>
       </c>
@@ -7616,7 +7625,7 @@
         <v>398</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E280" s="2">
         <v>11</v>
@@ -7625,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="281" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>399</v>
       </c>
@@ -7636,7 +7645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:6" customFormat="1" hidden="1">
+    <row r="282" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>400</v>
       </c>
@@ -7647,7 +7656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" customFormat="1">
+    <row r="283" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>401</v>
       </c>
@@ -7658,7 +7667,7 @@
         <v>228</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E283" s="1">
         <v>11</v>
@@ -7667,7 +7676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="2" customFormat="1">
+    <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>402</v>
       </c>
@@ -7678,7 +7687,7 @@
         <v>403</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E284" s="2">
         <v>11</v>
@@ -7687,7 +7696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" customFormat="1" hidden="1">
+    <row r="285" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>404</v>
       </c>
@@ -7698,7 +7707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" customFormat="1">
+    <row r="286" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>405</v>
       </c>
@@ -7709,7 +7718,7 @@
         <v>228</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E286" s="1">
         <v>11</v>
@@ -7718,7 +7727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:6" customFormat="1" hidden="1">
+    <row r="287" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>406</v>
       </c>
@@ -7729,7 +7738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" customFormat="1">
+    <row r="288" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>407</v>
       </c>
@@ -7740,7 +7749,7 @@
         <v>408</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E288" s="1">
         <v>11</v>
@@ -7749,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" s="2" customFormat="1" hidden="1">
+    <row r="289" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>409</v>
       </c>
@@ -7760,7 +7769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:13" s="2" customFormat="1">
+    <row r="290" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>410</v>
       </c>
@@ -7771,7 +7780,7 @@
         <v>411</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E290" s="2">
         <v>11</v>
@@ -7780,7 +7789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="2" customFormat="1" hidden="1">
+    <row r="291" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>412</v>
       </c>
@@ -7791,7 +7800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:13" customFormat="1" hidden="1">
+    <row r="292" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>413</v>
       </c>
@@ -7802,7 +7811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:13" customFormat="1">
+    <row r="293" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>414</v>
       </c>
@@ -7819,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:13" customFormat="1" hidden="1">
+    <row r="294" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>416</v>
       </c>
@@ -7830,7 +7839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="2" customFormat="1">
+    <row r="295" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>417</v>
       </c>
@@ -7841,7 +7850,7 @@
         <v>418</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E295" s="2">
         <v>11</v>
@@ -7850,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:13" customFormat="1">
+    <row r="296" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>419</v>
       </c>
@@ -7861,7 +7870,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="297" spans="1:13" customFormat="1" hidden="1">
+    <row r="297" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>421</v>
       </c>
@@ -7872,7 +7881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:13" customFormat="1" hidden="1">
+    <row r="298" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>422</v>
       </c>
@@ -7883,7 +7892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:13" customFormat="1" hidden="1">
+    <row r="299" spans="1:13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>423</v>
       </c>
@@ -7894,7 +7903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:13" customFormat="1">
+    <row r="300" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>424</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>425</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E300" s="1">
         <v>11</v>
@@ -7921,7 +7930,7 @@
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
     </row>
-    <row r="301" spans="1:13" s="2" customFormat="1" hidden="1">
+    <row r="301" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>426</v>
       </c>
@@ -7932,7 +7941,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="302" spans="1:13" s="2" customFormat="1" hidden="1">
+    <row r="302" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>428</v>
       </c>
@@ -7943,7 +7952,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="2" customFormat="1" hidden="1">
+    <row r="303" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>428</v>
       </c>
@@ -7954,7 +7963,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="304" spans="1:13" s="2" customFormat="1" hidden="1">
+    <row r="304" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>428</v>
       </c>
@@ -7965,7 +7974,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="305" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>432</v>
       </c>
@@ -7976,7 +7985,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="306" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>432</v>
       </c>
@@ -7987,7 +7996,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="307" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>432</v>
       </c>
@@ -7998,7 +8007,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="308" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>436</v>
       </c>
@@ -8009,7 +8018,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="309" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>436</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="310" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>436</v>
       </c>
@@ -8031,7 +8040,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="311" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>440</v>
       </c>
@@ -8042,7 +8051,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="312" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>440</v>
       </c>
@@ -8053,7 +8062,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="313" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>440</v>
       </c>
@@ -8064,7 +8073,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="314" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>440</v>
       </c>
@@ -8075,7 +8084,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="315" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>445</v>
       </c>
@@ -8086,7 +8095,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="316" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>445</v>
       </c>
@@ -8097,7 +8106,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="317" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>445</v>
       </c>
@@ -8108,7 +8117,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="318" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>449</v>
       </c>
@@ -8119,7 +8128,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="319" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>453</v>
       </c>
@@ -8130,7 +8139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="5" customFormat="1">
+    <row r="320" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>454</v>
       </c>
@@ -8141,7 +8150,7 @@
         <v>455</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E320" s="5">
         <v>11</v>
@@ -8150,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:17" customFormat="1" hidden="1">
+    <row r="321" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>456</v>
       </c>
@@ -8161,7 +8170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:17" customFormat="1">
+    <row r="322" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>457</v>
       </c>
@@ -8172,7 +8181,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="323" spans="1:17" customFormat="1" hidden="1">
+    <row r="323" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>459</v>
       </c>
@@ -8183,7 +8192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:17" customFormat="1" hidden="1">
+    <row r="324" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>460</v>
       </c>
@@ -8194,7 +8203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="325" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>461</v>
       </c>
@@ -8205,7 +8214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:17" s="2" customFormat="1">
+    <row r="326" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>462</v>
       </c>
@@ -8216,7 +8225,7 @@
         <v>463</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E326" s="2">
         <v>11</v>
@@ -8255,7 +8264,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:17" customFormat="1" hidden="1">
+    <row r="327" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>464</v>
       </c>
@@ -8266,7 +8275,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="328" spans="1:17" customFormat="1" hidden="1">
+    <row r="328" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>465</v>
       </c>
@@ -8277,7 +8286,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="329" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="329" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>466</v>
       </c>
@@ -8288,7 +8297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="330" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>467</v>
       </c>
@@ -8299,7 +8308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:17" customFormat="1" hidden="1">
+    <row r="331" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>468</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:17" hidden="1">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>469</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="333" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>470</v>
       </c>
@@ -8332,7 +8341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:17" customFormat="1" hidden="1">
+    <row r="334" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>471</v>
       </c>
@@ -8343,7 +8352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:17" customFormat="1">
+    <row r="335" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>472</v>
       </c>
@@ -8354,7 +8363,7 @@
         <v>473</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E335" s="1">
         <v>11</v>
@@ -8365,7 +8374,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:17" hidden="1">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>474</v>
       </c>
@@ -8376,7 +8385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="2" customFormat="1">
+    <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>475</v>
       </c>
@@ -8387,7 +8396,7 @@
         <v>476</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E337" s="2">
         <v>11</v>
@@ -8396,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="338" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>477</v>
       </c>
@@ -8407,7 +8416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>478</v>
       </c>
@@ -8418,7 +8427,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="2" customFormat="1">
+    <row r="340" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>480</v>
       </c>
@@ -8429,7 +8438,7 @@
         <v>481</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E340" s="2">
         <v>11</v>
@@ -8438,7 +8447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>482</v>
       </c>
@@ -8450,7 +8459,7 @@
       </c>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>483</v>
       </c>
@@ -8461,7 +8470,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="343" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>485</v>
       </c>
@@ -8472,7 +8481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>486</v>
       </c>
@@ -8483,7 +8492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:6" customFormat="1" hidden="1">
+    <row r="345" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>487</v>
       </c>
@@ -8494,7 +8503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:6" customFormat="1">
+    <row r="346" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>488</v>
       </c>
@@ -8505,7 +8514,7 @@
         <v>489</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E346" s="1">
         <v>11</v>
@@ -8514,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>490</v>
       </c>
@@ -8525,7 +8534,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="2" customFormat="1">
+    <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>492</v>
       </c>
@@ -8536,7 +8545,7 @@
         <v>493</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E348" s="2">
         <v>11</v>
@@ -8545,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>494</v>
       </c>
@@ -8556,7 +8565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>495</v>
       </c>
@@ -8567,7 +8576,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="351" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>497</v>
       </c>
@@ -8578,7 +8587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="2" customFormat="1">
+    <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>498</v>
       </c>
@@ -8589,7 +8598,7 @@
         <v>499</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E352" s="2">
         <v>11</v>
@@ -8598,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="353" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>500</v>
       </c>
@@ -8609,7 +8618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:20" s="2" customFormat="1">
+    <row r="354" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>501</v>
       </c>
@@ -8620,7 +8629,7 @@
         <v>502</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E354" s="2">
         <v>11</v>
@@ -8629,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="355" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>503</v>
       </c>
@@ -8640,7 +8649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:20" customFormat="1" hidden="1">
+    <row r="356" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>504</v>
       </c>
@@ -8651,7 +8660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:20" s="2" customFormat="1">
+    <row r="357" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>505</v>
       </c>
@@ -8662,7 +8671,7 @@
         <v>506</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E357" s="2">
         <v>11</v>
@@ -8671,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:20" customFormat="1" hidden="1">
+    <row r="358" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>507</v>
       </c>
@@ -8682,7 +8691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:20" customFormat="1">
+    <row r="359" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>508</v>
       </c>
@@ -8693,7 +8702,7 @@
         <v>509</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E359" s="1">
         <v>11</v>
@@ -8702,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="360" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>510</v>
       </c>
@@ -8713,7 +8722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:20" customFormat="1" hidden="1">
+    <row r="361" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>511</v>
       </c>
@@ -8724,7 +8733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:20" s="2" customFormat="1">
+    <row r="362" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>512</v>
       </c>
@@ -8735,7 +8744,7 @@
         <v>513</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E362" s="2">
         <v>11</v>
@@ -8744,7 +8753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:20" customFormat="1">
+    <row r="363" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>514</v>
       </c>
@@ -8755,7 +8764,7 @@
         <v>515</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E363" s="1">
         <v>11</v>
@@ -8764,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:20" customFormat="1" hidden="1">
+    <row r="364" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>516</v>
       </c>
@@ -8775,7 +8784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:20" s="7" customFormat="1">
+    <row r="365" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>517</v>
       </c>
@@ -8786,7 +8795,7 @@
         <v>518</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E365" s="6">
         <v>11</v>
@@ -8829,7 +8838,7 @@
       <c r="S365" s="6"/>
       <c r="T365" s="6"/>
     </row>
-    <row r="366" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="366" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>519</v>
       </c>
@@ -8840,7 +8849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="367" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>520</v>
       </c>
@@ -8851,7 +8860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:20" s="2" customFormat="1" hidden="1">
+    <row r="368" spans="1:20" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>521</v>
       </c>
@@ -8862,7 +8871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:19" s="2" customFormat="1">
+    <row r="369" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>522</v>
       </c>
@@ -8879,7 +8888,7 @@
         <v>10</v>
       </c>
       <c r="G369" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H369" s="11"/>
       <c r="I369" s="11"/>
@@ -8894,7 +8903,7 @@
       <c r="R369" s="11"/>
       <c r="S369" s="11"/>
     </row>
-    <row r="370" spans="1:19" customFormat="1" hidden="1">
+    <row r="370" spans="1:19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>524</v>
       </c>
@@ -8905,7 +8914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:19" customFormat="1">
+    <row r="371" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>525</v>
       </c>
@@ -8916,7 +8925,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="372" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="372" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>527</v>
       </c>
@@ -8927,7 +8936,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="373" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="373" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>528</v>
       </c>
@@ -8938,7 +8947,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="374" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="374" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>528</v>
       </c>
@@ -8949,7 +8958,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="375" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="375" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>529</v>
       </c>
@@ -8960,7 +8969,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="376" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="376" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>529</v>
       </c>
@@ -8971,7 +8980,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="377" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="377" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>529</v>
       </c>
@@ -8982,7 +8991,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="378" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="378" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>530</v>
       </c>
@@ -8993,7 +9002,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="379" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="379" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>531</v>
       </c>
@@ -9004,7 +9013,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="380" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="380" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>532</v>
       </c>
@@ -9015,7 +9024,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="381" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="381" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>532</v>
       </c>
@@ -9026,7 +9035,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="382" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="382" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>533</v>
       </c>
@@ -9037,7 +9046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="383" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>534</v>
       </c>
@@ -9048,7 +9057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:19" s="2" customFormat="1">
+    <row r="384" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>535</v>
       </c>
@@ -9065,7 +9074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:17" customFormat="1">
+    <row r="385" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>537</v>
       </c>
@@ -9076,7 +9085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="386" spans="1:17" customFormat="1" hidden="1">
+    <row r="386" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>538</v>
       </c>
@@ -9087,7 +9096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:17" customFormat="1">
+    <row r="387" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>539</v>
       </c>
@@ -9107,7 +9116,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="388" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>541</v>
       </c>
@@ -9118,7 +9127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:17" s="2" customFormat="1">
+    <row r="389" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>542</v>
       </c>
@@ -9135,7 +9144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="390" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>544</v>
       </c>
@@ -9146,7 +9155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:17" s="2" customFormat="1">
+    <row r="391" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>545</v>
       </c>
@@ -9157,7 +9166,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="392" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="392" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>547</v>
       </c>
@@ -9168,7 +9177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:17" s="5" customFormat="1">
+    <row r="393" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>548</v>
       </c>
@@ -9179,7 +9188,7 @@
         <v>549</v>
       </c>
       <c r="D393" s="5" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E393" s="5">
         <v>11</v>
@@ -9188,7 +9197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:17" customFormat="1" hidden="1">
+    <row r="394" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>550</v>
       </c>
@@ -9199,7 +9208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:17" customFormat="1">
+    <row r="395" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>551</v>
       </c>
@@ -9210,7 +9219,7 @@
         <v>552</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E395" s="1">
         <v>11</v>
@@ -9219,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:17" customFormat="1" hidden="1">
+    <row r="396" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>553</v>
       </c>
@@ -9230,7 +9239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:17" customFormat="1">
+    <row r="397" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>554</v>
       </c>
@@ -9247,7 +9256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:17" customFormat="1" hidden="1">
+    <row r="398" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>556</v>
       </c>
@@ -9258,7 +9267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:17" customFormat="1">
+    <row r="399" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>557</v>
       </c>
@@ -9269,7 +9278,7 @@
         <v>558</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E399" s="1">
         <v>11</v>
@@ -9289,7 +9298,7 @@
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
     </row>
-    <row r="400" spans="1:17" s="2" customFormat="1" hidden="1">
+    <row r="400" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>559</v>
       </c>
@@ -9300,7 +9309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:7" customFormat="1" hidden="1">
+    <row r="401" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>560</v>
       </c>
@@ -9311,7 +9320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="402" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>561</v>
       </c>
@@ -9322,7 +9331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="403" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>562</v>
       </c>
@@ -9333,7 +9342,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="404" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>564</v>
       </c>
@@ -9344,7 +9353,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="405" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="405" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>565</v>
       </c>
@@ -9355,7 +9364,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="406" spans="1:7" customFormat="1">
+    <row r="406" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>567</v>
       </c>
@@ -9366,7 +9375,7 @@
         <v>568</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E406" s="1">
         <v>11</v>
@@ -9376,7 +9385,7 @@
       </c>
       <c r="G406" s="1"/>
     </row>
-    <row r="407" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="407" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>569</v>
       </c>
@@ -9387,7 +9396,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="408" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>569</v>
       </c>
@@ -9398,7 +9407,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="409" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="409" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>570</v>
       </c>
@@ -9409,7 +9418,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="410" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="410" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>570</v>
       </c>
@@ -9420,7 +9429,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="411" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="411" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>571</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="412" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="412" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>572</v>
       </c>
@@ -9442,7 +9451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="413" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>573</v>
       </c>
@@ -9453,7 +9462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="2" customFormat="1">
+    <row r="414" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>574</v>
       </c>
@@ -9464,7 +9473,7 @@
         <v>575</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E414" s="2">
         <v>11</v>
@@ -9473,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" customFormat="1" hidden="1">
+    <row r="415" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>576</v>
       </c>
@@ -9484,7 +9493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:7" customFormat="1">
+    <row r="416" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>577</v>
       </c>
@@ -9495,7 +9504,7 @@
         <v>228</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E416" s="1">
         <v>11</v>
@@ -9505,7 +9514,7 @@
       </c>
       <c r="G416" s="1"/>
     </row>
-    <row r="417" spans="1:19" customFormat="1" hidden="1">
+    <row r="417" spans="1:19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>578</v>
       </c>
@@ -9519,7 +9528,7 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
     </row>
-    <row r="418" spans="1:19" s="9" customFormat="1">
+    <row r="418" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="s">
         <v>579</v>
       </c>
@@ -9530,7 +9539,7 @@
         <v>580</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E418" s="8">
         <v>11</v>
@@ -9558,7 +9567,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="1:19" s="7" customFormat="1" hidden="1">
+    <row r="419" spans="1:19" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>581</v>
       </c>
@@ -9569,7 +9578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:19" customFormat="1">
+    <row r="420" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>582</v>
       </c>
@@ -9580,7 +9589,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="421" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="421" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>584</v>
       </c>
@@ -9591,7 +9600,7 @@
         <v>4</v>
       </c>
       <c r="G421" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H421" s="11"/>
       <c r="I421" s="11"/>
@@ -9606,7 +9615,7 @@
       <c r="R421" s="11"/>
       <c r="S421" s="11"/>
     </row>
-    <row r="422" spans="1:19" s="2" customFormat="1">
+    <row r="422" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>585</v>
       </c>
@@ -9623,7 +9632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="423" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>587</v>
       </c>
@@ -9634,7 +9643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:19" s="2" customFormat="1">
+    <row r="424" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>588</v>
       </c>
@@ -9645,7 +9654,7 @@
         <v>589</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E424" s="2">
         <v>11</v>
@@ -9654,7 +9663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:19" customFormat="1" hidden="1">
+    <row r="425" spans="1:19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>590</v>
       </c>
@@ -9665,7 +9674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:19" customFormat="1">
+    <row r="426" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>591</v>
       </c>
@@ -9676,7 +9685,7 @@
         <v>592</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E426" s="1">
         <v>11</v>
@@ -9697,7 +9706,7 @@
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
     </row>
-    <row r="427" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="427" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>593</v>
       </c>
@@ -9717,7 +9726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="428" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>594</v>
       </c>
@@ -9737,7 +9746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="429" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>595</v>
       </c>
@@ -9757,7 +9766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="430" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>596</v>
       </c>
@@ -9768,7 +9777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:19" s="2" customFormat="1">
+    <row r="431" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>597</v>
       </c>
@@ -9779,7 +9788,7 @@
         <v>598</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E431" s="2">
         <v>11</v>
@@ -9788,7 +9797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:19" s="2" customFormat="1" hidden="1">
+    <row r="432" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>599</v>
       </c>
@@ -9799,7 +9808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:7" customFormat="1" hidden="1">
+    <row r="433" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>600</v>
       </c>
@@ -9810,7 +9819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:7" customFormat="1">
+    <row r="434" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>601</v>
       </c>
@@ -9828,7 +9837,7 @@
       </c>
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="1:7" s="2" customFormat="1">
+    <row r="435" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>603</v>
       </c>
@@ -9839,7 +9848,7 @@
         <v>604</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E435" s="2">
         <v>11</v>
@@ -9848,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" customFormat="1" hidden="1">
+    <row r="436" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>605</v>
       </c>
@@ -9859,7 +9868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:7" customFormat="1">
+    <row r="437" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>606</v>
       </c>
@@ -9876,7 +9885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="438" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>608</v>
       </c>
@@ -9887,7 +9896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="439" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>609</v>
       </c>
@@ -9898,7 +9907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:7" s="2" customFormat="1">
+    <row r="440" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>610</v>
       </c>
@@ -9909,7 +9918,7 @@
         <v>611</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="E440" s="2">
         <v>11</v>
@@ -9921,7 +9930,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="441" spans="1:7" customFormat="1" hidden="1">
+    <row r="441" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>612</v>
       </c>
@@ -9941,7 +9950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:7" customFormat="1" hidden="1">
+    <row r="442" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>613</v>
       </c>
@@ -9961,7 +9970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="443" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>615</v>
       </c>
@@ -9973,7 +9982,7 @@
       </c>
       <c r="D443" s="1"/>
     </row>
-    <row r="444" spans="1:7" s="2" customFormat="1">
+    <row r="444" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>616</v>
       </c>
@@ -9984,7 +9993,7 @@
         <v>617</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E444" s="2">
         <v>11</v>
@@ -9993,7 +10002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:7" customFormat="1" hidden="1">
+    <row r="445" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>618</v>
       </c>
@@ -10004,7 +10013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:7" customFormat="1" hidden="1">
+    <row r="446" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>619</v>
       </c>
@@ -10015,7 +10024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:7" customFormat="1" hidden="1">
+    <row r="447" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>620</v>
       </c>
@@ -10026,7 +10035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:7" customFormat="1">
+    <row r="448" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>621</v>
       </c>
@@ -10037,7 +10046,7 @@
         <v>622</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E448" s="1">
         <v>11</v>
@@ -10046,7 +10055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="449" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>623</v>
       </c>
@@ -10066,7 +10075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:8" customFormat="1" hidden="1">
+    <row r="450" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>624</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="451" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>625</v>
       </c>
@@ -10097,7 +10106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:8" customFormat="1">
+    <row r="452" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>626</v>
       </c>
@@ -10108,7 +10117,7 @@
         <v>627</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E452" s="1">
         <v>11</v>
@@ -10117,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:8" customFormat="1" hidden="1">
+    <row r="453" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>628</v>
       </c>
@@ -10131,7 +10140,7 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="1:8" customFormat="1">
+    <row r="454" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>629</v>
       </c>
@@ -10142,7 +10151,7 @@
         <v>630</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E454" s="1">
         <v>11</v>
@@ -10154,7 +10163,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="455" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="455" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>631</v>
       </c>
@@ -10165,7 +10174,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="456" spans="1:8" customFormat="1" hidden="1">
+    <row r="456" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>633</v>
       </c>
@@ -10176,7 +10185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="457" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>634</v>
       </c>
@@ -10187,7 +10196,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="458" spans="1:8" customFormat="1">
+    <row r="458" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>636</v>
       </c>
@@ -10198,7 +10207,7 @@
         <v>637</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E458" s="1">
         <v>11</v>
@@ -10209,7 +10218,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="459" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>638</v>
       </c>
@@ -10220,7 +10229,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="460" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="460" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>639</v>
       </c>
@@ -10231,7 +10240,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="461" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="461" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>640</v>
       </c>
@@ -10242,7 +10251,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="462" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="462" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>641</v>
       </c>
@@ -10253,7 +10262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:8" s="2" customFormat="1">
+    <row r="463" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>642</v>
       </c>
@@ -10264,7 +10273,7 @@
         <v>643</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E463" s="2">
         <v>11</v>
@@ -10273,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="464" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>644</v>
       </c>
@@ -10284,7 +10293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:8" s="2" customFormat="1">
+    <row r="465" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>645</v>
       </c>
@@ -10295,7 +10304,7 @@
         <v>646</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E465" s="2">
         <v>11</v>
@@ -10304,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:8" customFormat="1" hidden="1">
+    <row r="466" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>647</v>
       </c>
@@ -10315,7 +10324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:8" customFormat="1" hidden="1">
+    <row r="467" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>648</v>
       </c>
@@ -10326,7 +10335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:8" customFormat="1" hidden="1">
+    <row r="468" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>649</v>
       </c>
@@ -10347,7 +10356,7 @@
       </c>
       <c r="G468" s="1"/>
     </row>
-    <row r="469" spans="1:8" customFormat="1" hidden="1">
+    <row r="469" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>650</v>
       </c>
@@ -10367,7 +10376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:8" customFormat="1" hidden="1">
+    <row r="470" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>652</v>
       </c>
@@ -10387,7 +10396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:8" customFormat="1" hidden="1">
+    <row r="471" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>653</v>
       </c>
@@ -10407,7 +10416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:8" customFormat="1" hidden="1">
+    <row r="472" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>654</v>
       </c>
@@ -10427,7 +10436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:8" customFormat="1" hidden="1">
+    <row r="473" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>655</v>
       </c>
@@ -10447,7 +10456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="474" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>656</v>
       </c>
@@ -10458,7 +10467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:8" customFormat="1" hidden="1">
+    <row r="475" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>657</v>
       </c>
@@ -10469,7 +10478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="476" spans="1:8" s="2" customFormat="1">
+    <row r="476" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>658</v>
       </c>
@@ -10480,7 +10489,7 @@
         <v>659</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E476" s="2">
         <v>11</v>
@@ -10489,7 +10498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:8" customFormat="1" hidden="1">
+    <row r="477" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>660</v>
       </c>
@@ -10500,7 +10509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:8" customFormat="1">
+    <row r="478" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>661</v>
       </c>
@@ -10511,7 +10520,7 @@
         <v>173</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E478" s="1">
         <v>11</v>
@@ -10522,7 +10531,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" hidden="1">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>662</v>
       </c>
@@ -10533,7 +10542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:8" s="2" customFormat="1" hidden="1">
+    <row r="480" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>663</v>
       </c>
@@ -10544,7 +10553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>664</v>
       </c>
@@ -10555,7 +10564,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="482" spans="1:3" s="2" customFormat="1" hidden="1">
+    <row r="482" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>666</v>
       </c>
@@ -10566,7 +10575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:3" customFormat="1" hidden="1">
+    <row r="483" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>667</v>
       </c>
@@ -10577,7 +10586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:3" s="2" customFormat="1">
+    <row r="484" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>668</v>
       </c>
@@ -10588,7 +10597,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="485" spans="1:3" customFormat="1">
+    <row r="485" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>670</v>
       </c>
@@ -10599,7 +10608,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="486" spans="1:3" hidden="1">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>672</v>
       </c>
@@ -10610,7 +10619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:3" hidden="1">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>673</v>
       </c>
@@ -10621,7 +10630,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="488" spans="1:3" hidden="1">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>674</v>
       </c>
@@ -10632,7 +10641,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>675</v>
       </c>
@@ -10643,7 +10652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>676</v>
       </c>
@@ -10654,7 +10663,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="491" spans="1:3" hidden="1">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>678</v>
       </c>
@@ -10665,7 +10674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>679</v>
       </c>
@@ -10676,7 +10685,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="493" spans="1:3" s="2" customFormat="1" hidden="1">
+    <row r="493" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>681</v>
       </c>
@@ -10687,7 +10696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="494" spans="1:3" s="2" customFormat="1" hidden="1">
+    <row r="494" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>682</v>
       </c>
@@ -10698,7 +10707,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="495" spans="1:3" s="2" customFormat="1" hidden="1">
+    <row r="495" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>683</v>
       </c>
@@ -10709,7 +10718,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="496" spans="1:3" s="2" customFormat="1" hidden="1">
+    <row r="496" spans="1:3" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>684</v>
       </c>
@@ -10720,7 +10729,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="497" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="497" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>685</v>
       </c>
@@ -10731,7 +10740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:16" s="2" customFormat="1">
+    <row r="498" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>686</v>
       </c>
@@ -10742,7 +10751,7 @@
         <v>687</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E498" s="2">
         <v>11</v>
@@ -10751,7 +10760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="499" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>688</v>
       </c>
@@ -10762,7 +10771,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="500" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="500" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>689</v>
       </c>
@@ -10773,7 +10782,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="501" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="501" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>690</v>
       </c>
@@ -10784,7 +10793,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="502" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="502" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>691</v>
       </c>
@@ -10795,7 +10804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="503" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="503" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>692</v>
       </c>
@@ -10806,7 +10815,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="504" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="504" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>693</v>
       </c>
@@ -10817,7 +10826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:16" s="2" customFormat="1">
+    <row r="505" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>694</v>
       </c>
@@ -10828,7 +10837,7 @@
         <v>695</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E505" s="2">
         <v>11</v>
@@ -10837,7 +10846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="506" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>696</v>
       </c>
@@ -10848,7 +10857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:16" s="2" customFormat="1">
+    <row r="507" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>697</v>
       </c>
@@ -10859,7 +10868,7 @@
         <v>698</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E507" s="2">
         <v>11</v>
@@ -10868,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:16" customFormat="1" hidden="1">
+    <row r="508" spans="1:16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>699</v>
       </c>
@@ -10879,7 +10888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="509" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>700</v>
       </c>
@@ -10890,7 +10899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:16" customFormat="1">
+    <row r="510" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>701</v>
       </c>
@@ -10907,7 +10916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:16" customFormat="1" hidden="1">
+    <row r="511" spans="1:16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>703</v>
       </c>
@@ -10930,7 +10939,7 @@
       <c r="O511" s="1"/>
       <c r="P511" s="1"/>
     </row>
-    <row r="512" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="512" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
         <v>704</v>
       </c>
@@ -10953,7 +10962,7 @@
       <c r="O512" s="1"/>
       <c r="P512" s="1"/>
     </row>
-    <row r="513" spans="1:16" customFormat="1">
+    <row r="513" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>705</v>
       </c>
@@ -10981,7 +10990,7 @@
       <c r="O513" s="1"/>
       <c r="P513" s="1"/>
     </row>
-    <row r="514" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="514" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>707</v>
       </c>
@@ -11004,7 +11013,7 @@
       <c r="O514" s="1"/>
       <c r="P514" s="1"/>
     </row>
-    <row r="515" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="515" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>708</v>
       </c>
@@ -11027,7 +11036,7 @@
       <c r="O515" s="1"/>
       <c r="P515" s="1"/>
     </row>
-    <row r="516" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="516" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>709</v>
       </c>
@@ -11050,7 +11059,7 @@
       <c r="O516" s="1"/>
       <c r="P516" s="1"/>
     </row>
-    <row r="517" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="517" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>710</v>
       </c>
@@ -11073,7 +11082,7 @@
       <c r="O517" s="1"/>
       <c r="P517" s="1"/>
     </row>
-    <row r="518" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="518" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>711</v>
       </c>
@@ -11096,7 +11105,7 @@
       <c r="O518" s="1"/>
       <c r="P518" s="1"/>
     </row>
-    <row r="519" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="519" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>712</v>
       </c>
@@ -11119,7 +11128,7 @@
       <c r="O519" s="1"/>
       <c r="P519" s="1"/>
     </row>
-    <row r="520" spans="1:16" customFormat="1" hidden="1">
+    <row r="520" spans="1:16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>713</v>
       </c>
@@ -11142,7 +11151,7 @@
       <c r="O520" s="1"/>
       <c r="P520" s="1"/>
     </row>
-    <row r="521" spans="1:16" customFormat="1">
+    <row r="521" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>714</v>
       </c>
@@ -11153,7 +11162,7 @@
         <v>715</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E521" s="1">
         <v>11</v>
@@ -11172,7 +11181,7 @@
       <c r="O521" s="1"/>
       <c r="P521" s="1"/>
     </row>
-    <row r="522" spans="1:16" customFormat="1" hidden="1">
+    <row r="522" spans="1:16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>716</v>
       </c>
@@ -11195,7 +11204,7 @@
       <c r="O522" s="1"/>
       <c r="P522" s="1"/>
     </row>
-    <row r="523" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="523" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>717</v>
       </c>
@@ -11218,7 +11227,7 @@
       <c r="O523" s="1"/>
       <c r="P523" s="1"/>
     </row>
-    <row r="524" spans="1:16" customFormat="1">
+    <row r="524" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>718</v>
       </c>
@@ -11229,7 +11238,7 @@
         <v>719</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E524" s="1">
         <v>11</v>
@@ -11248,7 +11257,7 @@
       <c r="O524" s="1"/>
       <c r="P524" s="1"/>
     </row>
-    <row r="525" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="525" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>720</v>
       </c>
@@ -11259,7 +11268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="526" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>721</v>
       </c>
@@ -11270,7 +11279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:16" s="2" customFormat="1">
+    <row r="527" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>722</v>
       </c>
@@ -11281,7 +11290,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="528" spans="1:16" s="2" customFormat="1" hidden="1">
+    <row r="528" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>724</v>
       </c>
@@ -11292,7 +11301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:6" customFormat="1" hidden="1">
+    <row r="529" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>725</v>
       </c>
@@ -11303,7 +11312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="530" spans="1:6" s="2" customFormat="1">
+    <row r="530" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>726</v>
       </c>
@@ -11314,7 +11323,7 @@
         <v>727</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E530" s="2">
         <v>11</v>
@@ -11323,7 +11332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:6" customFormat="1" hidden="1">
+    <row r="531" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>728</v>
       </c>
@@ -11334,7 +11343,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="532" spans="1:6" customFormat="1" hidden="1">
+    <row r="532" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>729</v>
       </c>
@@ -11345,7 +11354,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="533" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="533" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>730</v>
       </c>
@@ -11356,7 +11365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:6" customFormat="1" hidden="1">
+    <row r="534" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>731</v>
       </c>
@@ -11367,7 +11376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="535" spans="1:6" s="2" customFormat="1">
+    <row r="535" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>732</v>
       </c>
@@ -11378,7 +11387,7 @@
         <v>733</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E535" s="2">
         <v>11</v>
@@ -11387,7 +11396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:6" customFormat="1" hidden="1">
+    <row r="536" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>734</v>
       </c>
@@ -11398,7 +11407,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="537" spans="1:6" customFormat="1" hidden="1">
+    <row r="537" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>735</v>
       </c>
@@ -11409,7 +11418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:6" customFormat="1">
+    <row r="538" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>736</v>
       </c>
@@ -11426,7 +11435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="539" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>738</v>
       </c>
@@ -11437,7 +11446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="540" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="540" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>739</v>
       </c>
@@ -11448,7 +11457,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="541" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="541" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
         <v>740</v>
       </c>
@@ -11459,7 +11468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="542" spans="1:6" customFormat="1" hidden="1">
+    <row r="542" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>741</v>
       </c>
@@ -11470,7 +11479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:6" customFormat="1">
+    <row r="543" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>742</v>
       </c>
@@ -11481,7 +11490,7 @@
         <v>743</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E543" s="1">
         <v>11</v>
@@ -11490,7 +11499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:6" s="2" customFormat="1" hidden="1">
+    <row r="544" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>744</v>
       </c>
@@ -11501,7 +11510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:8" customFormat="1" hidden="1">
+    <row r="545" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>745</v>
       </c>
@@ -11512,7 +11521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>746</v>
       </c>
@@ -11523,7 +11532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:8" customFormat="1" hidden="1">
+    <row r="547" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>747</v>
       </c>
@@ -11534,7 +11543,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>748</v>
       </c>
@@ -11545,7 +11554,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="549" spans="1:8" customFormat="1" hidden="1">
+    <row r="549" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>750</v>
       </c>
@@ -11556,7 +11565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="550" spans="1:8" customFormat="1">
+    <row r="550" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>751</v>
       </c>
@@ -11573,7 +11582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:8" customFormat="1" hidden="1">
+    <row r="551" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>753</v>
       </c>
@@ -11584,7 +11593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:8" customFormat="1">
+    <row r="552" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>754</v>
       </c>
@@ -11595,7 +11604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:8" s="2" customFormat="1">
+    <row r="553" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>755</v>
       </c>
@@ -11606,7 +11615,7 @@
         <v>756</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E553" s="2">
         <v>11</v>
@@ -11615,7 +11624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:8" customFormat="1" hidden="1">
+    <row r="554" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>757</v>
       </c>
@@ -11626,7 +11635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="555" spans="1:8" customFormat="1">
+    <row r="555" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>758</v>
       </c>
@@ -11637,7 +11646,7 @@
         <v>759</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="E555" s="1">
         <v>11</v>
@@ -11649,7 +11658,7 @@
       <c r="H555" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI555">
+  <autoFilter ref="A1:AI555" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <customFilters and="1">
         <customFilter operator="notEqual" val="*a*"/>
